--- a/GUI + Reviews/202506/Euronext World.xlsx
+++ b/GUI + Reviews/202506/Euronext World.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 10.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEF29FE-9B2D-4306-809B-A097073A83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC503EA-3133-4A69-912C-710CB5FAB815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{10A3B27F-3497-4234-A300-BAF390597A1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBED219-91B3-4DD8-B0FC-20852FCC6A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
     <t>ANGLO AMERICAN PLC</t>
   </si>
   <si>
-    <t>GB00BTK05J60</t>
+    <t>GB00B1XZS820</t>
   </si>
   <si>
     <t>AU-US</t>
@@ -3605,6 +3605,15 @@
     <t>US2521311074</t>
   </si>
   <si>
+    <t>4980-JP</t>
+  </si>
+  <si>
+    <t>Dexerials Corp</t>
+  </si>
+  <si>
+    <t>JP3548770001</t>
+  </si>
+  <si>
     <t>DXS-AU</t>
   </si>
   <si>
@@ -3803,15 +3812,6 @@
     <t>US2333311072</t>
   </si>
   <si>
-    <t>9606-HK</t>
-  </si>
-  <si>
-    <t>Duality Biotherapeutics, Inc.</t>
-  </si>
-  <si>
-    <t>KYG2929M1087</t>
-  </si>
-  <si>
     <t>DUK-US</t>
   </si>
   <si>
@@ -6917,7 +6917,7 @@
     <t>KONGSBERG GRUPPEN</t>
   </si>
   <si>
-    <t>NO0003043309</t>
+    <t>NO0013536151</t>
   </si>
   <si>
     <t>KPN-NL</t>
@@ -13956,20 +13956,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BB6E691-657B-47E8-97AF-DE1254346B90}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:K1501" xr:uid="{1BB6E691-657B-47E8-97AF-DE1254346B90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62D064D2-9A78-444D-9699-3EEE1727660A}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:K1501" xr:uid="{62D064D2-9A78-444D-9699-3EEE1727660A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AEE700AA-12A2-4D4C-991F-356D4AD767BE}" name="Rank" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{407A5167-48E3-4EFE-B765-83458174E305}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D9EB1CB7-6B7E-433C-B104-D1639B27E603}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C77D26E4-CB07-4763-8029-7511A7A2BA7B}" name="ISIN" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{ADA37CCF-04BD-4B5A-8167-0024C08B4D99}" name="MIC" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{CC7E7DF8-0536-40C2-AC6C-D3A3B8C89108}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{38CF87C5-4B9A-4784-BF0C-7F2EC5569269}" name="Price (EUR) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E67F7717-8D21-4ACA-8868-F612E6230486}" name="Currency (Local)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F37AED72-8057-46AC-9BBE-D6E85660AC41}" name="Mcap in EUR" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{14DD2338-524C-429B-BC3E-B2D5016187BA}" name="index" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5F0F9FCD-9798-4902-91AD-80D1AE225C29}" name="3 months ADTV" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3589D0E7-4F82-4B5E-81EF-F68F7AB6ED43}" name="Rank" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F729C7EC-A7B6-4770-AFAD-1103D17E6CD9}" name="Ticker" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1784D35A-A535-4D5B-99BC-35A048FD0EC5}" name="Name" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{6F83E819-E8B5-46DF-9F2A-00CA1790D3DF}" name="ISIN" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0677B16F-69EF-45AF-AE6D-01B0F5CC0E96}" name="MIC" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7D754433-42AA-4E51-9C38-A1E5D0BF47E1}" name="NOSH" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D29D5EDA-AAF8-445C-8CF5-89505BE043CA}" name="Price (EUR) " dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4B941B40-DEF8-4A25-B3D8-9AD6557AFE9E}" name="Currency (Local)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1ACC9EA3-1242-4BE2-B824-C8565FA3E73C}" name="Mcap in EUR" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{0A9D7741-883D-43E0-8226-635A78497DD7}" name="index" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{72AA738C-1FDD-4014-8842-8809AF5254CF}" name="3 months ADTV" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14291,7 +14291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E892C44A-7900-410A-B36C-E3BB3BD37BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7571D0FC-86AE-4569-8629-3C4033A3E669}">
   <dimension ref="A1:K1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -27660,25 +27660,25 @@
         <v>1191</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F382" s="1">
-        <v>1075565200</v>
+        <v>176418500</v>
       </c>
       <c r="G382" s="1">
-        <v>4.0115210000000001</v>
+        <v>11.98443</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I382" s="1">
-        <v>4314652386.6691999</v>
+        <v>2114275163.9549999</v>
       </c>
       <c r="J382" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K382" s="1">
-        <v>15479324.7898612</v>
+        <v>12626521.523249</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
@@ -27695,25 +27695,25 @@
         <v>1194</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F383" s="1">
-        <v>2225281500</v>
+        <v>1075565200</v>
       </c>
       <c r="G383" s="1">
-        <v>24.043749999999999</v>
+        <v>4.0115210000000001</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I383" s="1">
-        <v>53504112065.625</v>
+        <v>4314652386.6691999</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K383" s="1">
-        <v>83395603.172157899</v>
+        <v>15479324.7898612</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
@@ -27730,25 +27730,25 @@
         <v>1197</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="F384" s="1">
-        <v>292167970</v>
+        <v>2225281500</v>
       </c>
       <c r="G384" s="1">
-        <v>119.7585</v>
+        <v>24.043749999999999</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I384" s="1">
-        <v>34989597835.245003</v>
+        <v>53504112065.625</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K384" s="1">
-        <v>359380381.43352002</v>
+        <v>83395603.172157899</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
@@ -27765,25 +27765,25 @@
         <v>1200</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F385" s="1">
-        <v>53690082</v>
+        <v>292167970</v>
       </c>
       <c r="G385" s="1">
-        <v>181</v>
+        <v>119.7585</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I385" s="1">
-        <v>9717904842</v>
+        <v>34989597835.245003</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K385" s="1">
-        <v>10700183.6903226</v>
+        <v>359380381.43352002</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
@@ -27800,25 +27800,25 @@
         <v>1203</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F386" s="1">
-        <v>336791500</v>
+        <v>53690082</v>
       </c>
       <c r="G386" s="1">
-        <v>148.1952</v>
+        <v>181</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I386" s="1">
-        <v>49910883700.800003</v>
+        <v>9717904842</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K386" s="1">
-        <v>324087158.216717</v>
+        <v>10700183.6903226</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
@@ -27835,25 +27835,25 @@
         <v>1206</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F387" s="1">
-        <v>134176210</v>
+        <v>336791500</v>
       </c>
       <c r="G387" s="1">
-        <v>55.392220000000002</v>
+        <v>148.1952</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I387" s="1">
-        <v>7432318143.0862007</v>
+        <v>49910883700.800003</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K387" s="1">
-        <v>12811728.6044813</v>
+        <v>324087158.216717</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
@@ -27873,22 +27873,22 @@
         <v>14</v>
       </c>
       <c r="F388" s="1">
-        <v>1311388200</v>
+        <v>134176210</v>
       </c>
       <c r="G388" s="1">
-        <v>3.5928800000000001</v>
+        <v>55.392220000000002</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I388" s="1">
-        <v>4711660436.0159998</v>
+        <v>7432318143.0862007</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K388" s="1">
-        <v>9840554.2783295307</v>
+        <v>12811728.6044813</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
@@ -27905,25 +27905,25 @@
         <v>1212</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F389" s="1">
-        <v>108425766</v>
+        <v>1311388200</v>
       </c>
       <c r="G389" s="1">
-        <v>206.5685</v>
+        <v>3.5928800000000001</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I389" s="1">
-        <v>22397347843.971001</v>
+        <v>4711660436.0159998</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K389" s="1">
-        <v>1058534374.04807</v>
+        <v>9840554.2783295307</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
@@ -27943,22 +27943,22 @@
         <v>26</v>
       </c>
       <c r="F390" s="1">
-        <v>142325930</v>
+        <v>108425766</v>
       </c>
       <c r="G390" s="1">
-        <v>18.382930000000002</v>
+        <v>206.5685</v>
       </c>
       <c r="H390" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="1">
-        <v>2616367608.3749003</v>
+        <v>22397347843.971001</v>
       </c>
       <c r="J390" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K390" s="1">
-        <v>40532744.204122901</v>
+        <v>1058534374.04807</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
@@ -27975,25 +27975,25 @@
         <v>1218</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="F391" s="1">
-        <v>1492530286</v>
+        <v>142325930</v>
       </c>
       <c r="G391" s="1">
-        <v>24.025829999999999</v>
+        <v>18.382930000000002</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="I391" s="1">
-        <v>35859278921.287376</v>
+        <v>2616367608.3749003</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K391" s="1">
-        <v>46060125.918240502</v>
+        <v>40532744.204122901</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -28010,25 +28010,25 @@
         <v>1221</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="F392" s="1">
-        <v>202502560</v>
+        <v>1492530286</v>
       </c>
       <c r="G392" s="1">
-        <v>74.582400000000007</v>
+        <v>24.025829999999999</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I392" s="1">
-        <v>15103126930.944002</v>
+        <v>35859278921.287376</v>
       </c>
       <c r="J392" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K392" s="1">
-        <v>174443039.58665001</v>
+        <v>46060125.918240502</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
@@ -28045,25 +28045,25 @@
         <v>1224</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F393" s="1">
-        <v>219947080</v>
+        <v>202502560</v>
       </c>
       <c r="G393" s="1">
-        <v>89.373710000000003</v>
+        <v>74.582400000000007</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I393" s="1">
-        <v>19657486543.2668</v>
+        <v>15103126930.944002</v>
       </c>
       <c r="J393" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K393" s="1">
-        <v>355019588.95465899</v>
+        <v>174443039.58665001</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
@@ -28080,25 +28080,25 @@
         <v>1227</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F394" s="1">
-        <v>210147800</v>
+        <v>219947080</v>
       </c>
       <c r="G394" s="1">
-        <v>77.720479999999995</v>
+        <v>89.373710000000003</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I394" s="1">
-        <v>16332787886.943998</v>
+        <v>19657486543.2668</v>
       </c>
       <c r="J394" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K394" s="1">
-        <v>348181936.99976802</v>
+        <v>355019588.95465899</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -28115,25 +28115,25 @@
         <v>1230</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="F395" s="1">
-        <v>277033630</v>
+        <v>210147800</v>
       </c>
       <c r="G395" s="1">
-        <v>110.3049</v>
+        <v>77.720479999999995</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I395" s="1">
-        <v>30558166853.787003</v>
+        <v>16332787886.943998</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K395" s="1">
-        <v>79201504.3649185</v>
+        <v>348181936.99976802</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
@@ -28150,25 +28150,25 @@
         <v>1233</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="F396" s="1">
-        <v>852790600</v>
+        <v>277033630</v>
       </c>
       <c r="G396" s="1">
-        <v>49.618760000000002</v>
+        <v>110.3049</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I396" s="1">
-        <v>42314412111.655998</v>
+        <v>30558166853.787003</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K396" s="1">
-        <v>279062069.956981</v>
+        <v>79201504.3649185</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -28185,25 +28185,25 @@
         <v>1236</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F397" s="1">
-        <v>398681300</v>
+        <v>852790600</v>
       </c>
       <c r="G397" s="1">
-        <v>181.71799999999999</v>
+        <v>49.618760000000002</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I397" s="1">
-        <v>72447568473.399994</v>
+        <v>42314412111.655998</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K397" s="1">
-        <v>1067342241.4076</v>
+        <v>279062069.956981</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
@@ -28220,25 +28220,25 @@
         <v>1239</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F398" s="1">
-        <v>137104370</v>
+        <v>398681300</v>
       </c>
       <c r="G398" s="1">
-        <v>156.8073</v>
+        <v>181.71799999999999</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I398" s="1">
-        <v>21498966077.901001</v>
+        <v>72447568473.399994</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K398" s="1">
-        <v>190263568.99696299</v>
+        <v>1067342241.4076</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
@@ -28258,22 +28258,22 @@
         <v>20</v>
       </c>
       <c r="F399" s="1">
-        <v>706861760</v>
+        <v>137104370</v>
       </c>
       <c r="G399" s="1">
-        <v>24.963640000000002</v>
+        <v>156.8073</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I399" s="1">
-        <v>17645842506.406403</v>
+        <v>21498966077.901001</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K399" s="1">
-        <v>262286156.848077</v>
+        <v>190263568.99696299</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
@@ -28290,25 +28290,25 @@
         <v>1245</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F400" s="1">
-        <v>496285640</v>
+        <v>706861760</v>
       </c>
       <c r="G400" s="1">
-        <v>30.92248</v>
+        <v>24.963640000000002</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I400" s="1">
-        <v>15346382777.187201</v>
+        <v>17645842506.406403</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K400" s="1">
-        <v>372545854.34002298</v>
+        <v>262286156.848077</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
@@ -28325,25 +28325,25 @@
         <v>1248</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F401" s="1">
-        <v>265676388</v>
+        <v>496285640</v>
       </c>
       <c r="G401" s="1">
-        <v>97.44</v>
+        <v>30.92248</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I401" s="1">
-        <v>25887507246.720001</v>
+        <v>15346382777.187201</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K401" s="1">
-        <v>48340466.367016204</v>
+        <v>372545854.34002298</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
@@ -28360,25 +28360,25 @@
         <v>1251</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="F402" s="1">
-        <v>240444520</v>
+        <v>265676388</v>
       </c>
       <c r="G402" s="1">
-        <v>207.26140000000001</v>
+        <v>97.44</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="I402" s="1">
-        <v>49834867837.528</v>
+        <v>25887507246.720001</v>
       </c>
       <c r="J402" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K402" s="1">
-        <v>67799493.923132703</v>
+        <v>48340466.367016204</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -28395,25 +28395,25 @@
         <v>1254</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="F403" s="1">
-        <v>207515690</v>
+        <v>240444520</v>
       </c>
       <c r="G403" s="1">
-        <v>120.164</v>
+        <v>207.26140000000001</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="I403" s="1">
-        <v>24935915373.16</v>
+        <v>49834867837.528</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K403" s="1">
-        <v>187874078.86394599</v>
+        <v>67799493.923132703</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
@@ -28430,25 +28430,25 @@
         <v>1257</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F404" s="1">
-        <v>88036260</v>
+        <v>207515690</v>
       </c>
       <c r="G404" s="1">
-        <v>24.06653</v>
+        <v>120.164</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I404" s="1">
-        <v>2118727292.3778</v>
+        <v>24935915373.16</v>
       </c>
       <c r="J404" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K404" s="1">
-        <v>22247093.692638598</v>
+        <v>187874078.86394599</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
@@ -37568,7 +37568,7 @@
         <v>37</v>
       </c>
       <c r="F665" s="1">
-        <v>1014692391</v>
+        <v>811753913</v>
       </c>
       <c r="G665" s="1">
         <v>7.15</v>
@@ -37577,7 +37577,7 @@
         <v>38</v>
       </c>
       <c r="I665" s="1">
-        <v>7255050595.6500006</v>
+        <v>5804040477.9500008</v>
       </c>
       <c r="J665" s="1" t="s">
         <v>16</v>
@@ -40508,7 +40508,7 @@
         <v>195</v>
       </c>
       <c r="F749" s="1">
-        <v>879609245</v>
+        <v>175921849</v>
       </c>
       <c r="G749" s="1">
         <v>151.07679999999999</v>
@@ -40517,7 +40517,7 @@
         <v>196</v>
       </c>
       <c r="I749" s="1">
-        <v>132888549985.01599</v>
+        <v>26577709997.003197</v>
       </c>
       <c r="J749" s="1" t="s">
         <v>16</v>
@@ -51078,7 +51078,7 @@
         <v>106</v>
       </c>
       <c r="F1051" s="1">
-        <v>216116100</v>
+        <v>216556000</v>
       </c>
       <c r="G1051" s="1">
         <v>37.11</v>
@@ -51087,7 +51087,7 @@
         <v>38</v>
       </c>
       <c r="I1051" s="1">
-        <v>8020068471</v>
+        <v>8036393160</v>
       </c>
       <c r="J1051" s="1" t="s">
         <v>16</v>
